--- a/outputs-r202/p__Methanobacteriota.xlsx
+++ b/outputs-r202/p__Methanobacteriota.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,7 +543,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>RUG201.fasta</t>
+          <t>RUG031.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -575,7 +575,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>RUG344.fasta</t>
+          <t>RUG076.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -607,7 +607,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>RUG545.fasta</t>
+          <t>RUG092.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -639,7 +639,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>RUG593.fasta</t>
+          <t>RUG186.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -671,7 +671,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>RUG648.fasta</t>
+          <t>RUG201.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -703,30 +703,350 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
+          <t>RUG236.fasta</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>c__Methanobacteria</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>c__Methanobacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>RUG256.fasta</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>c__Methanobacteria</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>c__Methanobacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>RUG338.fasta</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>c__Methanobacteria</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>c__Methanobacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>RUG344.fasta</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>c__Methanobacteria</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>c__Methanobacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>RUG526.fasta</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>c__Methanobacteria</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>c__Methanobacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>RUG545.fasta</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>c__Methanobacteria</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>c__Methanobacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>RUG593.fasta</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>c__Methanobacteria</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>c__Methanobacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>RUG648.fasta</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>c__Methanobacteria</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>c__Methanobacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
           <t>RUG748.fasta</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>c__Methanobacteria</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>c__Methanobacteria</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>c__Methanobacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>RUG780.fasta</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>c__Methanobacteria</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>c__Methanobacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>RUG787.fasta</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>c__Methanobacteria</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
         <is>
           <t>c__Methanobacteria</t>
         </is>

--- a/outputs-r202/p__Methanobacteriota.xlsx
+++ b/outputs-r202/p__Methanobacteriota.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -831,7 +831,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>RUG526.fasta</t>
+          <t>RUG492.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -863,7 +863,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>RUG545.fasta</t>
+          <t>RUG526.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -895,7 +895,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>RUG593.fasta</t>
+          <t>RUG545.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -927,7 +927,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>RUG648.fasta</t>
+          <t>RUG593.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -959,7 +959,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>RUG748.fasta</t>
+          <t>RUG648.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -991,7 +991,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>RUG780.fasta</t>
+          <t>RUG748.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1023,7 +1023,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>RUG787.fasta</t>
+          <t>RUG780.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1055,30 +1055,94 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
+          <t>RUG787.fasta</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>c__Methanobacteria</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>c__Methanobacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
           <t>RUG823.fasta</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>c__Methanobacteria</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>c__Methanobacteria</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>c__Methanobacteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>RUG833.fasta</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>c__Methanobacteria</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
         <is>
           <t>c__Methanobacteria</t>
         </is>
